--- a/update_data/data/bank_psbc/dialogue/网银工具.xlsx
+++ b/update_data/data/bank_psbc/dialogue/网银工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="795" windowWidth="9525" windowHeight="1170" tabRatio="935" activeTab="8"/>
+    <workbookView xWindow="2250" yWindow="3180" windowWidth="27120" windowHeight="8805" tabRatio="935" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="挂失补办U盾" sheetId="56" r:id="rId1"/>
@@ -60,11 +60,11 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" tabRatio="935" activeSheetId="2"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="935" activeSheetId="26"/>
+    <customWorkbookView name="logan.sun(孙永华) - 个人视图" guid="{F27E45BD-4211-4973-9816-5087D3C59600}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="525" tabRatio="751" activeSheetId="1"/>
+    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{7CDACA17-8C29-46EC-87D3-5A8B1FE51E1F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="953" activeSheetId="20"/>
     <customWorkbookView name="jin.yan(闫瑾) - 个人视图" guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="657" tabRatio="891" activeSheetId="31"/>
-    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{7CDACA17-8C29-46EC-87D3-5A8B1FE51E1F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="953" activeSheetId="20"/>
-    <customWorkbookView name="logan.sun(孙永华) - 个人视图" guid="{F27E45BD-4211-4973-9816-5087D3C59600}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="525" tabRatio="751" activeSheetId="1"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="935" activeSheetId="26"/>
-    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" tabRatio="935" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -380,15 +380,9 @@
     <t>K令怎么办/网银盾怎么办/K令去哪办/网银盾去哪办/你能帮我办K令吗/你能帮我办网银盾吗/你知道K令怎么办吗/你知道网银盾怎么办么/如果我要办K令的话怎么办/如果我要办K令呢</t>
   </si>
   <si>
-    <t>我想办个UK/你带我去办UK呢/我想办UK/我想办个网银盾/办UK/我是来办UK的/我要办个UK/我想办网银盾/我来签约UK/签约UK/签约网银盾/网盾/UK/网银盾/我就办UK呢</t>
-  </si>
-  <si>
     <t>UK怎么办/网银盾怎么办/UK去哪办/网银盾去哪办/你能帮我办UK吗/你能帮我办网银盾吗/你知道UK怎么办吗/你知道网银盾怎么办么/如果我要办UK的话怎么办/如果我要办UK呢</t>
   </si>
   <si>
-    <t>我想办个丰收宝/你带我去办丰收宝呢/我想办丰收宝/我想办个网银盾/办丰收宝/我是来办丰收宝的/我要办个丰收宝/我想办网银盾/我来签约丰收宝/签约丰收宝/签约网银盾/网盾/丰收宝/网银盾/我就办丰收宝呢</t>
-  </si>
-  <si>
     <t>丰收宝怎么办/网银盾怎么办/丰收宝去哪办/网银盾去哪办/你能帮我办丰收宝吗/你能帮我办网银盾吗/你知道丰收宝怎么办吗/你知道网银盾怎么办么/如果我要办丰收宝的话怎么办/如果我要办丰收宝呢</t>
   </si>
   <si>
@@ -398,9 +392,6 @@
     <t>电子令牌怎么办/网银盾怎么办/电子令牌去哪办/网银盾去哪办/你能帮我办电子令牌吗/你能帮我办网银盾吗/你知道电子令牌怎么办吗/你知道网银盾怎么办么/如果我要办电子令牌的话怎么办/如果我要办电子令牌呢</t>
   </si>
   <si>
-    <t>我想办个口令牌/你带我去办口令牌呢/我想办口令牌/我想办个网银盾/办口令牌/我是来办口令牌的/我要办个口令牌/我想办网银盾/我来签约口令牌/签约口令牌/签约网银盾/网盾/口令牌/网银盾/我就办口令牌呢</t>
-  </si>
-  <si>
     <t>口令牌怎么办/网银盾怎么办/口令牌去哪办/网银盾去哪办/你能帮我办口令牌吗/你能帮我办网银盾吗/你知道口令牌怎么办吗/你知道网银盾怎么办么/如果我要办口令牌的话怎么办/如果我要办口令牌呢</t>
   </si>
   <si>
@@ -534,9 +525,6 @@
   </si>
   <si>
     <t>挂失丰收宝可以么？/怎么挂失丰收宝？/挂失丰收宝怎么办？/挂失丰收宝可以么？/我丰收宝丢了，怎么办？/丰收宝不见了，怎么办？/丰收宝可以挂失么？/</t>
-  </si>
-  <si>
-    <t>我来挂失补办丰收宝/我是来挂失补办丰收宝的/我想挂失补办丰收宝/挂失补办丰收宝/挂失网银盾然后补办/网银盾挂失补办/我的丰收宝丢了我想补办一个/我不小心丢了丰收宝要补办一个/我丰收宝不见了我要补办/我之前丢了丰收宝补办一个/我前天丢了丰收宝补办一个/</t>
   </si>
   <si>
     <t>挂失补办丰收宝可以么？/怎么挂失补办丰收宝？/挂失丰收宝怎么办补办？/挂失丰收宝可以补办么？/我丰收宝丢了，怎么挂失补办？/丰收宝不见了，怎么办补办？/丰收宝可以挂失么？可以补办吗/</t>
@@ -588,6 +576,98 @@
         <scheme val="minor"/>
       </rPr>
       <t>/是/是的/要/想要网银工具/想要</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开网银UK/办理网银UK/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我想办个UK/你带我去办UK呢/我想办UK/我想办个网银盾/办UK/我是来办UK的/我要办个UK/我想办网银盾/我来签约UK/签约UK/签约网银盾/网盾/UK/网银盾/我就办UK呢</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开网银丰收宝/开网银-丰收宝/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我想办个丰收宝/你带我去办丰收宝呢/我想办丰收宝/我想办个网银盾/办丰收宝/我是来办丰收宝的/我要办个丰收宝/我想办网银盾/我来签约丰收宝/签约丰收宝/签约网银盾/网盾/丰收宝/网银盾/我就办丰收宝呢</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开网银-口令牌/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我想办个口令牌/你带我去办口令牌呢/我想办口令牌/我想办个网银盾/办口令牌/我是来办口令牌的/我要办个口令牌/我想办网银盾/我来签约口令牌/签约口令牌/签约网银盾/网盾/口令牌/网银盾/我就办口令牌呢</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我来挂失补办丰收宝/我是来挂失补办丰收宝的/我想挂失补办丰收宝/挂失补办丰收宝/挂失网银盾然后补办/网银盾挂失补办/我的丰收宝丢了我想补办一个/我不小心丢了丰收宝要补办一个/我丰收宝不见了我要补办/我之前丢了丰收宝补办一个/我前天丢了丰收宝补办一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/挂失丰收宝怎么办理</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1118,7 +1198,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -1131,7 +1211,7 @@
         <v>挂失</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1187,7 +1267,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
@@ -1200,7 +1280,7 @@
         <v>挂失</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1238,7 +1318,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
@@ -1248,7 +1328,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1286,7 +1366,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -1296,7 +1376,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1331,7 +1411,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>35</v>
@@ -1341,7 +1421,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1376,7 +1456,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>35</v>
@@ -1386,7 +1466,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1434,7 +1514,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1458,7 +1538,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1482,7 +1562,7 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1506,7 +1586,7 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -1538,7 +1618,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>35</v>
@@ -1551,7 +1631,7 @@
         <v>挂失</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1604,7 +1684,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -1617,7 +1697,7 @@
         <v>挂失</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1670,7 +1750,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -1683,7 +1763,7 @@
         <v>挂失</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1736,7 +1816,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -1749,7 +1829,7 @@
         <v>挂失</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1802,7 +1882,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>35</v>
@@ -1815,7 +1895,7 @@
         <v>挂失</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1868,7 +1948,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>35</v>
@@ -1881,7 +1961,7 @@
         <v>挂失</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -1939,7 +2019,7 @@
         <v>49</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -1976,7 +2056,7 @@
         <v>49</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -2013,7 +2093,7 @@
         <v>49</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -2050,7 +2130,7 @@
         <v>49</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3752,7 +3832,7 @@
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F1:F1048576"/>
+      <selection pane="topRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4277,7 +4357,7 @@
         <v>53</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4297,7 +4377,7 @@
         <v>53</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4312,9 +4392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F1:F1048576"/>
+      <selection pane="topRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4839,7 +4919,7 @@
         <v>53</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4859,7 +4939,7 @@
         <v>53</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5401,7 +5481,7 @@
         <v>53</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5421,7 +5501,7 @@
         <v>53</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5437,9 +5517,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5964,7 +6044,7 @@
         <v>53</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5984,15 +6064,29 @@
         <v>53</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F37"/>
   <customSheetViews>
-    <customSheetView guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}">
-      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" scale="115" showAutoFilter="1">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+      <autoFilter ref="A1:P37"/>
+    </customSheetView>
+    <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" scale="115" showAutoFilter="1">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+      <autoFilter ref="A1:P37"/>
+    </customSheetView>
+    <customSheetView guid="{F27E45BD-4211-4973-9816-5087D3C59600}" scale="90">
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2:O2"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -6001,25 +6095,11 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{F27E45BD-4211-4973-9816-5087D3C59600}" scale="90">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2:O2"/>
+    <customSheetView guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}">
+      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" scale="115" showAutoFilter="1">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
-      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:P37"/>
-    </customSheetView>
-    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" scale="115" showAutoFilter="1">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
-      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:P37"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6086,7 +6166,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -6099,7 +6179,7 @@
         <v>挂失</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6155,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
@@ -6168,7 +6248,7 @@
         <v>挂失</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6206,7 +6286,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
@@ -6216,7 +6296,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6254,7 +6334,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -6264,7 +6344,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6299,7 +6379,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>35</v>
@@ -6309,7 +6389,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6344,7 +6424,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>35</v>
@@ -6354,7 +6434,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6402,7 +6482,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -6426,7 +6506,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -6450,7 +6530,7 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -6474,7 +6554,7 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -6506,7 +6586,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>35</v>
@@ -6519,7 +6599,7 @@
         <v>挂失</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6572,7 +6652,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -6585,7 +6665,7 @@
         <v>挂失</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6638,7 +6718,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -6651,7 +6731,7 @@
         <v>挂失</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6704,7 +6784,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -6717,7 +6797,7 @@
         <v>挂失</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6770,7 +6850,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>35</v>
@@ -6783,7 +6863,7 @@
         <v>挂失</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6836,7 +6916,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>35</v>
@@ -6849,7 +6929,7 @@
         <v>挂失</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -6907,7 +6987,7 @@
         <v>49</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -6944,7 +7024,7 @@
         <v>49</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -6981,7 +7061,7 @@
         <v>49</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -7018,7 +7098,7 @@
         <v>49</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -7086,7 +7166,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -7099,7 +7179,7 @@
         <v>挂失</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7155,7 +7235,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
@@ -7168,7 +7248,7 @@
         <v>挂失</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7206,7 +7286,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
@@ -7216,7 +7296,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7254,7 +7334,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -7264,7 +7344,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7299,7 +7379,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>35</v>
@@ -7309,7 +7389,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7344,7 +7424,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>35</v>
@@ -7354,7 +7434,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7402,7 +7482,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -7426,7 +7506,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -7450,7 +7530,7 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -7474,7 +7554,7 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -7506,7 +7586,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>35</v>
@@ -7519,7 +7599,7 @@
         <v>挂失</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7572,7 +7652,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -7585,7 +7665,7 @@
         <v>挂失</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7638,7 +7718,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -7651,7 +7731,7 @@
         <v>挂失</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7704,7 +7784,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -7717,7 +7797,7 @@
         <v>挂失</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7770,7 +7850,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>35</v>
@@ -7783,7 +7863,7 @@
         <v>挂失</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7836,7 +7916,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>35</v>
@@ -7849,7 +7929,7 @@
         <v>挂失</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -7907,7 +7987,7 @@
         <v>49</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -7944,7 +8024,7 @@
         <v>49</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -7981,7 +8061,7 @@
         <v>49</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -8018,7 +8098,7 @@
         <v>49</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -8086,7 +8166,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -8099,7 +8179,7 @@
         <v>挂失</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8155,7 +8235,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
@@ -8168,7 +8248,7 @@
         <v>挂失</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8206,7 +8286,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
@@ -8216,7 +8296,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8254,7 +8334,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -8264,7 +8344,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8299,7 +8379,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>35</v>
@@ -8309,7 +8389,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8344,7 +8424,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>35</v>
@@ -8354,7 +8434,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8402,7 +8482,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -8426,7 +8506,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -8450,7 +8530,7 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -8474,7 +8554,7 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -8506,7 +8586,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>35</v>
@@ -8519,7 +8599,7 @@
         <v>挂失</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8572,7 +8652,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -8585,7 +8665,7 @@
         <v>挂失</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8638,7 +8718,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -8651,7 +8731,7 @@
         <v>挂失</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8704,7 +8784,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -8717,7 +8797,7 @@
         <v>挂失</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8770,7 +8850,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>35</v>
@@ -8783,7 +8863,7 @@
         <v>挂失</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8836,7 +8916,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>35</v>
@@ -8849,7 +8929,7 @@
         <v>挂失</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -8907,7 +8987,7 @@
         <v>49</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -8944,7 +9024,7 @@
         <v>49</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -8981,7 +9061,7 @@
         <v>49</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -9018,7 +9098,7 @@
         <v>49</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -9086,7 +9166,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -9099,7 +9179,7 @@
         <v>挂失</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9155,7 +9235,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
@@ -9168,7 +9248,7 @@
         <v>挂失</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9206,7 +9286,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
@@ -9216,7 +9296,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9254,7 +9334,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -9264,7 +9344,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9299,7 +9379,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>35</v>
@@ -9309,7 +9389,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9344,7 +9424,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>35</v>
@@ -9354,7 +9434,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9402,7 +9482,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -9426,7 +9506,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -9450,7 +9530,7 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -9474,7 +9554,7 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -9506,7 +9586,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>35</v>
@@ -9519,7 +9599,7 @@
         <v>挂失</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9572,7 +9652,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -9585,7 +9665,7 @@
         <v>挂失</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9638,7 +9718,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -9651,7 +9731,7 @@
         <v>挂失</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9704,7 +9784,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -9717,7 +9797,7 @@
         <v>挂失</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9770,7 +9850,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>35</v>
@@ -9783,7 +9863,7 @@
         <v>挂失</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9836,7 +9916,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>35</v>
@@ -9849,7 +9929,7 @@
         <v>挂失</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -9907,7 +9987,7 @@
         <v>49</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -9944,7 +10024,7 @@
         <v>49</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -9981,7 +10061,7 @@
         <v>49</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -10018,7 +10098,7 @@
         <v>49</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -10032,8 +10112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10086,7 +10166,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -10099,7 +10179,7 @@
         <v>挂失</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10155,7 +10235,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
@@ -10168,7 +10248,7 @@
         <v>挂失</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10206,7 +10286,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
@@ -10216,7 +10296,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10254,7 +10334,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -10264,7 +10344,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10299,7 +10379,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>35</v>
@@ -10309,7 +10389,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10344,7 +10424,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>35</v>
@@ -10354,7 +10434,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10402,7 +10482,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -10426,7 +10506,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -10450,7 +10530,7 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -10474,7 +10554,7 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -10506,7 +10586,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>35</v>
@@ -10519,7 +10599,7 @@
         <v>挂失</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10572,7 +10652,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -10585,7 +10665,7 @@
         <v>挂失</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10638,7 +10718,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -10651,7 +10731,7 @@
         <v>挂失</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10704,7 +10784,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -10717,7 +10797,7 @@
         <v>挂失</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10770,7 +10850,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>35</v>
@@ -10783,7 +10863,7 @@
         <v>挂失</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10836,7 +10916,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>35</v>
@@ -10849,7 +10929,7 @@
         <v>挂失</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -10907,7 +10987,7 @@
         <v>49</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -10944,7 +11024,7 @@
         <v>49</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -10981,7 +11061,7 @@
         <v>49</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -11018,7 +11098,7 @@
         <v>49</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -11086,7 +11166,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -11099,7 +11179,7 @@
         <v>挂失</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11155,7 +11235,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
@@ -11168,7 +11248,7 @@
         <v>挂失</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11206,7 +11286,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
@@ -11216,7 +11296,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11254,7 +11334,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -11264,7 +11344,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11299,7 +11379,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>35</v>
@@ -11309,7 +11389,7 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11344,7 +11424,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>35</v>
@@ -11354,7 +11434,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11402,7 +11482,7 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -11426,7 +11506,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -11450,7 +11530,7 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -11474,7 +11554,7 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -11506,7 +11586,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>35</v>
@@ -11519,7 +11599,7 @@
         <v>挂失</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11572,7 +11652,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -11585,7 +11665,7 @@
         <v>挂失</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11638,7 +11718,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -11651,7 +11731,7 @@
         <v>挂失</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11704,7 +11784,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -11717,7 +11797,7 @@
         <v>挂失</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11770,7 +11850,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>35</v>
@@ -11783,7 +11863,7 @@
         <v>挂失</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11836,7 +11916,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>35</v>
@@ -11849,7 +11929,7 @@
         <v>挂失</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">
@@ -11907,7 +11987,7 @@
         <v>49</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -11944,7 +12024,7 @@
         <v>49</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="54" x14ac:dyDescent="0.15">
@@ -11981,7 +12061,7 @@
         <v>49</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
@@ -12018,7 +12098,7 @@
         <v>49</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -12086,7 +12166,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>35</v>
@@ -12155,7 +12235,7 @@
         <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
@@ -12206,7 +12286,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>35</v>
@@ -12254,7 +12334,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -12299,7 +12379,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>35</v>
@@ -12344,7 +12424,7 @@
         <v>66</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>35</v>
@@ -12506,7 +12586,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>35</v>
@@ -12572,7 +12652,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
@@ -12638,7 +12718,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>35</v>
@@ -12704,7 +12784,7 @@
         <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -12770,7 +12850,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>35</v>
@@ -12836,7 +12916,7 @@
         <v>63</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>35</v>
@@ -13023,20 +13103,20 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}">
+      <selection sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}">
+      <selection sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}">
       <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}">
-      <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}">
-      <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13049,7 +13129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -13121,7 +13201,7 @@
         <v>开网银</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13252,7 +13332,7 @@
         <v>开网银</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/update_data/data/bank_psbc/dialogue/网银工具.xlsx
+++ b/update_data/data/bank_psbc/dialogue/网银工具.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="151">
   <si>
     <t>业务</t>
   </si>
@@ -655,8 +655,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>我来挂失补办丰收宝/我是来挂失补办丰收宝的/我想挂失补办丰收宝/挂失补办丰收宝/挂失网银盾然后补办/网银盾挂失补办/我的丰收宝丢了我想补办一个/我不小心丢了丰收宝要补办一个/我丰收宝不见了我要补办/我之前丢了丰收宝补办一个/我前天丢了丰收宝补办一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>我来挂失补办丰收宝/我是来挂失补办丰收宝的/我想挂失补办丰收宝/挂失补办丰收宝/挂失网银盾然后补办/网银盾挂失补办/我的丰收宝丢了我想补办一个/我不小心丢了丰收宝要补办一个/我丰收宝不见了我要补办/我之前丢了丰收宝补办一个/我前天丢了丰收宝补办一个</t>
+      <t>挂失丰收宝可以么？/怎么挂失丰收宝？/挂失丰收宝怎么办？/挂失丰收宝可以么？/我丰收宝丢了，怎么办？/丰收宝不见了，怎么办？/丰收宝可以挂失么？</t>
     </r>
     <r>
       <rPr>
@@ -10113,7 +10117,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10434,7 +10438,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="54" x14ac:dyDescent="0.15">

--- a/update_data/data/bank_psbc/dialogue/网银工具.xlsx
+++ b/update_data/data/bank_psbc/dialogue/网银工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="3180" windowWidth="27120" windowHeight="8805" tabRatio="935" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="2250" yWindow="3180" windowWidth="20730" windowHeight="8805" tabRatio="935" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="挂失补办U盾" sheetId="56" r:id="rId1"/>
@@ -60,18 +60,18 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="jin.yan(闫瑾) - 个人视图" guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="657" tabRatio="891" activeSheetId="31"/>
+    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{7CDACA17-8C29-46EC-87D3-5A8B1FE51E1F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="953" activeSheetId="20"/>
+    <customWorkbookView name="logan.sun(孙永华) - 个人视图" guid="{F27E45BD-4211-4973-9816-5087D3C59600}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="525" tabRatio="751" activeSheetId="1"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="935" activeSheetId="26"/>
     <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" tabRatio="935" activeSheetId="2"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="935" activeSheetId="26"/>
-    <customWorkbookView name="logan.sun(孙永华) - 个人视图" guid="{F27E45BD-4211-4973-9816-5087D3C59600}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="525" tabRatio="751" activeSheetId="1"/>
-    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{7CDACA17-8C29-46EC-87D3-5A8B1FE51E1F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="953" activeSheetId="20"/>
-    <customWorkbookView name="jin.yan(闫瑾) - 个人视图" guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="657" tabRatio="891" activeSheetId="31"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="153">
   <si>
     <t>业务</t>
   </si>
@@ -675,12 +675,46 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">我要开网银/开通网银/开通网上银行/我来办理网银业务/我要办理网银业务/我要开网银/我来开通网银业务/我要开通网银业务/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开网银</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>需要的/要用的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/是/是的/要/想要网银工具/想要</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +763,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -6074,12 +6116,22 @@
   </sheetData>
   <autoFilter ref="A1:F37"/>
   <customSheetViews>
-    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" scale="115" showAutoFilter="1">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+    <customSheetView guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}">
+      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:P37"/>
+    </customSheetView>
+    <customSheetView guid="{7CDACA17-8C29-46EC-87D3-5A8B1FE51E1F}" topLeftCell="A13">
+      <selection activeCell="H49" sqref="H49"/>
+      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+    </customSheetView>
+    <customSheetView guid="{F27E45BD-4211-4973-9816-5087D3C59600}" scale="90">
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2:O2"/>
+      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
     <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" scale="115" showAutoFilter="1">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -6088,22 +6140,12 @@
       <pageSetup paperSize="9" orientation="portrait"/>
       <autoFilter ref="A1:P37"/>
     </customSheetView>
-    <customSheetView guid="{F27E45BD-4211-4973-9816-5087D3C59600}" scale="90">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2:O2"/>
+    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" scale="115" showAutoFilter="1">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{7CDACA17-8C29-46EC-87D3-5A8B1FE51E1F}" topLeftCell="A13">
-      <selection activeCell="H49" sqref="H49"/>
-      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}">
-      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
-      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
+      <autoFilter ref="A1:P37"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10116,7 +10158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -13107,20 +13149,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}">
+    <customSheetView guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}">
+      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}">
+    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}">
       <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}">
-      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13133,9 +13175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13183,8 +13225,8 @@
         <v>8</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
+      <c r="F2" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13205,7 +13247,7 @@
         <v>开网银</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/update_data/data/bank_psbc/dialogue/网银工具.xlsx
+++ b/update_data/data/bank_psbc/dialogue/网银工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="3180" windowWidth="20730" windowHeight="8805" tabRatio="935" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="2250" yWindow="3210" windowWidth="20730" windowHeight="8775" tabRatio="935" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="挂失补办U盾" sheetId="56" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="154">
   <si>
     <t>业务</t>
   </si>
@@ -677,23 +677,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">我要开网银/开通网银/开通网上银行/我来办理网银业务/我要办理网银业务/我要开网银/我来开通网银业务/我要开通网银业务/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开网银</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>需要的/要用的</t>
     </r>
     <r>
@@ -709,12 +692,46 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">我要开网银/开通网银/开通网上银行/我来办理网银业务/我要办理网银业务/我要开网银/我来开通网银业务/我要开通网银业务/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开网银/我要办网银/要开网银</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我要开网银/开通网银/开通网上银行/我来办理网银业务/我要办理网银业务/我要开网银/我来开通网银业务/我要开通网银业务/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我要办网银 /要开网银</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +788,14 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -13176,8 +13201,8 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13226,7 +13251,7 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13247,7 +13272,7 @@
         <v>开网银</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13269,8 +13294,8 @@
       <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
+      <c r="F5" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">

--- a/update_data/data/bank_psbc/dialogue/网银工具.xlsx
+++ b/update_data/data/bank_psbc/dialogue/网银工具.xlsx
@@ -60,11 +60,11 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" tabRatio="935" activeSheetId="2"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="935" activeSheetId="26"/>
+    <customWorkbookView name="logan.sun(孙永华) - 个人视图" guid="{F27E45BD-4211-4973-9816-5087D3C59600}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="525" tabRatio="751" activeSheetId="1"/>
+    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{7CDACA17-8C29-46EC-87D3-5A8B1FE51E1F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="953" activeSheetId="20"/>
     <customWorkbookView name="jin.yan(闫瑾) - 个人视图" guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="657" tabRatio="891" activeSheetId="31"/>
-    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{7CDACA17-8C29-46EC-87D3-5A8B1FE51E1F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="953" activeSheetId="20"/>
-    <customWorkbookView name="logan.sun(孙永华) - 个人视图" guid="{F27E45BD-4211-4973-9816-5087D3C59600}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="525" tabRatio="751" activeSheetId="1"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="935" activeSheetId="26"/>
-    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" tabRatio="935" activeSheetId="2"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
@@ -694,6 +694,23 @@
   </si>
   <si>
     <r>
+      <t>我要开网银/开通网银/开通网上银行/我来办理网银业务/我要办理网银业务/我要开网银/我来开通网银业务/我要开通网银业务/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我要办网银 /要开网银/开个网银吧</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">我要开网银/开通网银/开通网上银行/我来办理网银业务/我要办理网银业务/我要开网银/我来开通网银业务/我要开通网银业务/ </t>
     </r>
     <r>
@@ -705,24 +722,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>开网银/我要办网银/要开网银</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我要开网银/开通网银/开通网上银行/我来办理网银业务/我要办理网银业务/我要开网银/我来开通网银业务/我要开通网银业务/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我要办网银 /要开网银</t>
+      <t>开网银/我要办网银/要开网银/开个网银吧</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6141,9 +6141,23 @@
   </sheetData>
   <autoFilter ref="A1:F37"/>
   <customSheetViews>
-    <customSheetView guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}">
-      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" scale="115" showAutoFilter="1">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+      <autoFilter ref="A1:P37"/>
+    </customSheetView>
+    <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" scale="115" showAutoFilter="1">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait"/>
+      <autoFilter ref="A1:P37"/>
+    </customSheetView>
+    <customSheetView guid="{F27E45BD-4211-4973-9816-5087D3C59600}" scale="90">
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2:O2"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -6152,25 +6166,11 @@
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{F27E45BD-4211-4973-9816-5087D3C59600}" scale="90">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2:O2"/>
+    <customSheetView guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}">
+      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
       <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-    </customSheetView>
-    <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}" scale="115" showAutoFilter="1">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
-      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:P37"/>
-    </customSheetView>
-    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}" scale="115" showAutoFilter="1">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
-      <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:P37"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13174,20 +13174,20 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}">
+      <selection sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}">
+      <selection sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{6777E8BA-C9A8-47D3-9DCF-608A42028176}">
       <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ECD853CD-C5A8-4AC8-B97D-CE8FC44D5709}">
-      <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{05212F36-A787-43C5-B24C-BD1A06F62D44}">
-      <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13202,7 +13202,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13251,7 +13251,7 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -13295,7 +13295,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
